--- a/biology/Zoologie/Grand-duc_de_Shelley/Grand-duc_de_Shelley.xlsx
+++ b/biology/Zoologie/Grand-duc_de_Shelley/Grand-duc_de_Shelley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubo shelleyi
 Le Grand-duc de Shelley (Bubo shelleyi) est une espèce d'oiseaux de la famille des Strigidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit en Afrique équatoriale, mais les populations sont généralement localisées et l'espèce est donc globalement rare. Il a été photographié en octobre 2021 pour la 1ère  fois depuis 150 ans dans la forêt d’Atewa au Ghana et plus récemment en 2022 par le photographe Benjamin Schweinart en Cote d'Ivoire dans le parc national de Taï [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en Afrique équatoriale, mais les populations sont généralement localisées et l'espèce est donc globalement rare. Il a été photographié en octobre 2021 pour la 1ère  fois depuis 150 ans dans la forêt d’Atewa au Ghana et plus récemment en 2022 par le photographe Benjamin Schweinart en Cote d'Ivoire dans le parc national de Taï .
 </t>
         </is>
       </c>
